--- a/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
+++ b/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.2</t>
+    <t>0.9.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-10T13:37:11+00:00</t>
+    <t>2022-04-21T01:23:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
+++ b/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-21T01:23:52+00:00</t>
+    <t>2022-04-21T05:38:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
+++ b/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-21T05:38:11+00:00</t>
+    <t>2022-04-22T05:32:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
+++ b/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T05:32:13+00:00</t>
+    <t>2022-04-22T22:19:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
+++ b/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T22:19:05+00:00</t>
+    <t>2022-04-22T23:34:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
+++ b/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T23:34:59+00:00</t>
+    <t>2022-04-23T00:37:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
+++ b/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-23T00:37:39+00:00</t>
+    <t>2022-04-25T03:15:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
+++ b/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-25T03:15:58+00:00</t>
+    <t>2022-04-25T04:39:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
+++ b/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-25T04:39:48+00:00</t>
+    <t>2022-05-01T00:56:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
+++ b/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-01T00:56:39+00:00</t>
+    <t>2022-05-01T02:16:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
+++ b/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-01T02:16:03+00:00</t>
+    <t>2022-05-01T02:29:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
+++ b/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-01T02:29:12+00:00</t>
+    <t>2022-05-01T06:51:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
+++ b/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-01T06:51:21+00:00</t>
+    <t>2022-05-01T07:56:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
+++ b/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-01T07:56:43+00:00</t>
+    <t>2022-05-01T08:20:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
+++ b/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-01T08:20:40+00:00</t>
+    <t>2022-05-01T08:26:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
+++ b/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-01T08:26:20+00:00</t>
+    <t>2022-05-01T08:52:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
+++ b/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-01T08:52:05+00:00</t>
+    <t>2022-05-01T09:02:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
+++ b/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-01T09:02:23+00:00</t>
+    <t>2022-05-01T09:09:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
+++ b/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-01T09:09:29+00:00</t>
+    <t>2022-05-01T09:35:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
+++ b/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-01T09:35:48+00:00</t>
+    <t>2022-05-01T12:53:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
+++ b/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-01T12:53:40+00:00</t>
+    <t>2022-05-01T20:53:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
+++ b/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-01T20:53:19+00:00</t>
+    <t>2022-05-01T21:05:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
+++ b/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-01T21:05:46+00:00</t>
+    <t>2022-05-01T22:43:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
+++ b/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-01T22:43:25+00:00</t>
+    <t>2022-05-01T22:53:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
+++ b/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-01T22:53:56+00:00</t>
+    <t>2022-05-02T07:44:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
+++ b/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-02T07:44:18+00:00</t>
+    <t>2022-05-02T10:21:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
+++ b/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-02T10:21:24+00:00</t>
+    <t>2022-05-02T10:50:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
+++ b/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-02T10:50:31+00:00</t>
+    <t>2022-05-03T00:21:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
+++ b/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T00:21:29+00:00</t>
+    <t>2022-05-03T01:15:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
+++ b/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T01:15:21+00:00</t>
+    <t>2022-05-03T02:09:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
+++ b/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T02:09:10+00:00</t>
+    <t>2022-05-03T02:49:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
+++ b/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T02:49:18+00:00</t>
+    <t>2022-05-03T03:12:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
+++ b/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T03:12:42+00:00</t>
+    <t>2022-05-03T04:04:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
+++ b/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T04:04:48+00:00</t>
+    <t>2022-05-03T04:30:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
+++ b/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T04:30:51+00:00</t>
+    <t>2022-05-03T05:04:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
+++ b/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T05:04:59+00:00</t>
+    <t>2022-05-03T05:27:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
+++ b/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T05:27:05+00:00</t>
+    <t>2022-05-03T06:16:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
+++ b/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T06:16:41+00:00</t>
+    <t>2022-05-03T06:26:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
+++ b/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T06:26:51+00:00</t>
+    <t>2022-05-03T06:40:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
+++ b/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T06:40:37+00:00</t>
+    <t>2022-05-03T09:05:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
+++ b/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T09:05:27+00:00</t>
+    <t>2022-05-03T09:15:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
+++ b/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T09:15:54+00:00</t>
+    <t>2022-05-03T09:31:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
+++ b/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T09:31:31+00:00</t>
+    <t>2022-05-03T09:47:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
+++ b/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T09:47:05+00:00</t>
+    <t>2022-05-03T09:52:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
+++ b/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T09:52:58+00:00</t>
+    <t>2022-05-03T10:00:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
+++ b/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T10:00:20+00:00</t>
+    <t>2022-05-03T13:46:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
+++ b/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T13:46:54+00:00</t>
+    <t>2022-05-03T13:57:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
+++ b/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T13:57:59+00:00</t>
+    <t>2022-05-03T14:13:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
+++ b/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T14:13:16+00:00</t>
+    <t>2022-05-03T14:30:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
+++ b/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T14:30:51+00:00</t>
+    <t>2022-05-03T14:42:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
+++ b/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T14:42:01+00:00</t>
+    <t>2022-05-03T14:47:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
+++ b/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T14:47:21+00:00</t>
+    <t>2022-05-03T14:50:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
+++ b/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T14:50:06+00:00</t>
+    <t>2022-05-03T14:57:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
+++ b/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T14:57:39+00:00</t>
+    <t>2022-05-03T15:06:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
+++ b/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T15:06:26+00:00</t>
+    <t>2022-05-03T15:16:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
+++ b/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T15:16:47+00:00</t>
+    <t>2022-05-03T15:35:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
+++ b/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T15:35:58+00:00</t>
+    <t>2022-05-03T15:43:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
+++ b/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T15:43:05+00:00</t>
+    <t>2022-05-03T15:49:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
+++ b/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T15:49:57+00:00</t>
+    <t>2022-05-03T16:00:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
+++ b/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T16:00:23+00:00</t>
+    <t>2022-05-03T16:08:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
+++ b/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T16:08:02+00:00</t>
+    <t>2022-05-03T16:17:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
+++ b/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T16:17:25+00:00</t>
+    <t>2022-05-03T16:26:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
+++ b/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T16:26:02+00:00</t>
+    <t>2022-05-03T22:22:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
+++ b/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T22:22:17+00:00</t>
+    <t>2022-05-03T22:31:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
+++ b/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T22:31:21+00:00</t>
+    <t>2022-05-03T23:41:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
+++ b/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T23:41:08+00:00</t>
+    <t>2022-05-03T23:58:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
+++ b/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T23:58:12+00:00</t>
+    <t>2022-05-04T05:26:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
+++ b/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T05:26:20+00:00</t>
+    <t>2022-05-04T20:18:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
+++ b/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T20:18:51+00:00</t>
+    <t>2022-05-04T20:28:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
+++ b/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T20:28:34+00:00</t>
+    <t>2022-05-04T20:44:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
+++ b/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T20:44:56+00:00</t>
+    <t>2022-05-04T21:03:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
+++ b/CodeSystem-jp-codeSystem-ractitioner-certificate-category.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T21:03:24+00:00</t>
+    <t>2022-05-04T22:40:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
